--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Họ tên:Nguyễn Hoàng KhởiNgày sinh:15/02/01|| Mã sinh viên:190201002|| Lớp:22TH0101</t>
+          <t>Họ tên:Lê Trung HậuNgày sinh:11/07/00|| Mã sinh viên:190501027|| Lớp:22TH0101</t>
         </is>
       </c>
     </row>
@@ -513,12 +513,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0</t>
+          <t xml:space="preserve"> 7.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.4 </t>
+          <t xml:space="preserve"> 6.6 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2</t>
+          <t xml:space="preserve"> 6.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -575,17 +575,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3</t>
+          <t xml:space="preserve"> 6.6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">C </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -649,12 +649,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VT</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">VT </t>
+          <t xml:space="preserve"> 6.5 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -664,17 +664,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.0</t>
+          <t xml:space="preserve"> 7.3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">F </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0</t>
+          <t xml:space="preserve"> 5.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.5 </t>
+          <t xml:space="preserve"> 8.5 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -711,17 +711,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.4</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 9.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 9.5 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -805,17 +805,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.4</t>
+          <t xml:space="preserve"> 9.5</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">B+ </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2</t>
+          <t xml:space="preserve"> 7.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.9 </t>
+          <t xml:space="preserve"> 5.1 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -860,17 +860,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.4</t>
+          <t xml:space="preserve"> 5.9</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.5 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">D+ </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3</t>
+          <t xml:space="preserve"> 6.5</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -939,12 +939,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.0 </t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -954,17 +954,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.8</t>
+          <t xml:space="preserve"> 8.3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.0 </t>
+          <t xml:space="preserve"> 3.5 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">C </t>
+          <t xml:space="preserve">B+ </t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve"> 7.5 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">C </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.4 </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1048,17 +1048,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.8</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -1080,12 +1080,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0 </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3</t>
+          <t xml:space="preserve"> 6.6</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.0</t>
+          <t xml:space="preserve"> 6.8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.4 </t>
+          <t xml:space="preserve"> 7.2 </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1239,17 +1239,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.3</t>
+          <t xml:space="preserve"> 7.1</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.5 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">D+ </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.8</t>
+          <t xml:space="preserve"> 6.2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.9 </t>
+          <t xml:space="preserve"> 5.7 </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1286,17 +1286,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.9</t>
+          <t xml:space="preserve"> 5.9</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.0 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">D </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1 </t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve"> 7.6</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.0 </t>
+          <t xml:space="preserve"> 9.0 </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1380,17 +1380,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.4</t>
+          <t xml:space="preserve"> 8.7</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">D </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -1412,12 +1412,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.5 </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1427,17 +1427,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.7</t>
+          <t xml:space="preserve"> 8.6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.7 </t>
+          <t xml:space="preserve"> 8.6 </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1474,17 +1474,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.7</t>
+          <t xml:space="preserve"> 8.6</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -1506,12 +1506,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 9.5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5 </t>
+          <t xml:space="preserve"> 9.0 </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1521,17 +1521,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 9.2</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -1553,12 +1553,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.6</t>
+          <t xml:space="preserve"> 8.9</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3 </t>
+          <t xml:space="preserve"> 9.3 </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 9.2</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve"> 9.5 </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 9.5</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1650,12 +1650,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.4</t>
+          <t xml:space="preserve"> 7.8</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.2 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1665,17 +1665,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.9</t>
+          <t xml:space="preserve"> 6.5</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">C </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.2 </t>
+          <t xml:space="preserve"> 5.1 </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.9</t>
+          <t xml:space="preserve"> 6.5</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">C </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -1744,12 +1744,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0 </t>
+          <t xml:space="preserve"> 9.5 </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1759,17 +1759,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3</t>
+          <t xml:space="preserve"> 9.7</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3 </t>
+          <t xml:space="preserve"> 9.8 </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.9</t>
+          <t xml:space="preserve"> 9.1</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1838,12 +1838,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 9.8</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1853,17 +1853,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.5</t>
+          <t xml:space="preserve"> 9.9</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -1885,12 +1885,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1900,17 +1900,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.9</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 9.8 </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5</t>
+          <t xml:space="preserve"> 9.7</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0 </t>
+          <t xml:space="preserve"> 7.5 </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3</t>
+          <t xml:space="preserve"> 7.7</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2011,161 +2011,85 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SKI0011</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>KN Thuyết trình</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 </t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.0</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.5 </t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.1</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.5 </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B+ </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
           <t xml:space="preserve">Học kỳ 3 - năm học 2020 - 2021 </t>
         </is>
       </c>
     </row>
-    <row r="45"/>
+    <row r="44"/>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MIL0042</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Giáo dục quốc phòng - an ninh 1 (*)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.0 </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0 </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B </t>
+        </is>
+      </c>
+    </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MIL0042</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Giáo dục quốc phòng - an ninh 1 (*)</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 </t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.0 </t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.0</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0 </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MIL0052</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Giáo dục quốc phòng - an ninh 2 (*)</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 </t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.5 </t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.5</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.0 </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A </t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">Học kỳ 1 - năm học 2021 - 2022 </t>
+        </is>
+      </c>
+    </row>
+    <row r="47"/>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MIL0063</t>
+          <t>CHN0032</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Giáo dục quốc phòng - an ninh 3 (*)</t>
+          <t>Hoa văn sơ cấp 3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.8</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0 </t>
+          <t xml:space="preserve"> 7.2 </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2175,39 +2099,44 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 7.1</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MIL0071</t>
+          <t>ENG0994</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Giáo dục quốc phòng - an ninh 4 (*)</t>
+          <t>Anh văn cơ bản 5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">4 </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve"> 6.5 </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2217,52 +2146,138 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0</t>
+          <t xml:space="preserve"> 6.9</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">C </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Học kỳ 1 - năm học 2021 - 2022 </t>
-        </is>
-      </c>
-    </row>
-    <row r="51"/>
+          <t>INF0062</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Các vấn đề về xu hướng phát triển CNTT</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.5</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.0 </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.9</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0 </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>INF0873</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nhập môn kỹ thuật phần mềm</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.0 </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.3</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.0 </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+    </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CHN0032</t>
+          <t>INF0953</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hoa văn sơ cấp 3</t>
+          <t>An ninh cơ sở dữ liệu</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.6</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.4 </t>
+          <t xml:space="preserve"> 8.3 </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2272,44 +2287,44 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2</t>
+          <t xml:space="preserve"> 8.2</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 3.5 </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">B+ </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ENG0994</t>
+          <t>INF0972</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Anh văn cơ bản 5</t>
+          <t>Chuyên đề 1 (**)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5 </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2319,44 +2334,44 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INF0062</t>
+          <t>INF1313</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Các vấn đề về xu hướng phát triển CNTT</t>
+          <t>Quản trị dự án công nghệ thông tin</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5 </t>
+          <t xml:space="preserve"> 8.5 </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2366,44 +2381,39 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 8.7</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>INF0873</t>
+          <t>PHE0271</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Nhập môn kỹ thuật phần mềm</t>
+          <t>Giáo dục thể chất 3 (*)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>10.0</t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0 </t>
+          <t xml:space="preserve"> 7.0 </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2413,44 +2423,44 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3</t>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INF0953</t>
+          <t>POL0052</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>An ninh cơ sở dữ liệu</t>
+          <t>Kinh tế chính trị Mác - Lênin</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 8.5 </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2460,29 +2470,29 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.9</t>
+          <t xml:space="preserve"> 8.1</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 3.5 </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">B+ </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>INF0972</t>
+          <t>POL0062</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chuyên đề 1 (**)</t>
+          <t>Chủ nghĩa xã hội khoa học</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2492,12 +2502,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.5 </t>
+          <t xml:space="preserve"> 7.5 </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2507,39 +2517,39 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.4</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>INF1313</t>
+          <t>SKI0011</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Quản trị dự án công nghệ thông tin</t>
+          <t>KN Thuyết trình</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2554,118 +2564,37 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.7</t>
+          <t xml:space="preserve"> 8.1</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.5 </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B+ </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PHE0271</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Giáo dục thể chất 3 (*)</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 </t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.0 </t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.0</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0 </t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B </t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>POL0052</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Kinh tế chính trị Mác - Lênin</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 </t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.0</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.0 </t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.4</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0 </t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B </t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">Học kỳ 2 - năm học 2021 - 2022 </t>
+        </is>
+      </c>
+    </row>
+    <row r="60"/>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>POL0062</t>
+          <t>CHN0042</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Chủ nghĩa xã hội khoa học</t>
+          <t>Hoa văn sơ cấp 4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2675,12 +2604,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 5.6</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2690,44 +2619,44 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.7</t>
+          <t xml:space="preserve"> 5.9</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SKI0071</t>
+          <t>INF0103</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KN Võ thuật tự vệ</t>
+          <t xml:space="preserve"> Nhập môn Trí tuệ nhân tạo</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.7</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0 </t>
+          <t xml:space="preserve"> 6.5 </t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2737,52 +2666,138 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.9</t>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Học kỳ 2 - năm học 2021 - 2022 </t>
-        </is>
-      </c>
-    </row>
-    <row r="64"/>
+          <t>INF0983</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nhập môn khoa học dữ liệu</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.5</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.0 </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.2</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.0 </t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>INF1083</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Phát triển ứng dụng trí tuệ nhân tạo</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.5</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.5 </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.2</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.0 </t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+    </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CHN0042</t>
+          <t>INF1133</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hoa văn sơ cấp 4</t>
+          <t>Lập trình hệ thống</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.4</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.6 </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2792,29 +2807,29 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>INF0103</t>
+          <t>INF1143</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nhập môn Trí tuệ nhân tạo</t>
+          <t>Xử lý ảnh số và thị giác máy tính</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2824,12 +2839,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.5 </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2839,44 +2854,44 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve"> 9.7</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INF0983</t>
+          <t>INF1152</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nhập môn khoa học dữ liệu</t>
+          <t>Chuyên đề 2 (**)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.9</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.6 </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2886,29 +2901,29 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.7</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>INF1083</t>
+          <t>INF1263</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Phát triển ứng dụng trí tuệ nhân tạo</t>
+          <t>Kiểm thử phần mềm</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2923,7 +2938,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 9.0 </t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2933,44 +2948,44 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">B+ </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>INF1133</t>
+          <t>POL0032</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Lập trình hệ thống</t>
+          <t>Tư tưởng Hồ Chí Minh</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.1 </t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2980,44 +2995,44 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.2</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">B+ </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>INF1143</t>
+          <t>SKI0061</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Xử lý ảnh số và thị giác máy tính</t>
+          <t>KN Tư duy phản biện</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve"> 8.5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve"> 9.5 </t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3027,133 +3042,42 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3</t>
+          <t xml:space="preserve"> 9.1</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>INF1152</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Chuyên đề 2 (**)</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 </t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.5 </t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.7</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.0 </t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A </t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>INF1263</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Kiểm thử phần mềm</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.0</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.0 </t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.0</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0 </t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B </t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">Học kỳ 1 - năm học 2022 - 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="72"/>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>POL0032</t>
+          <t>INF0123</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tư tưởng Hồ Chí Minh</t>
+          <t>Đồ án ngành</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3168,7 +3092,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.7</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3185,27 +3109,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SKI0061</t>
+          <t>INF1113</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>KN Tư duy phản biện</t>
+          <t>Phát triển ứng dụng học máy</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 9.2</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 9.3 </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3215,47 +3139,138 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 9.3</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Học kỳ 3 - năm học 2021 - 2022 </t>
-        </is>
-      </c>
-    </row>
-    <row r="76"/>
+          <t>INF1182</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Máy học trong thị giác máy tính</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.5</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.0 </t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.9</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.0 </t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>INF1203</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Hệ thống thông minh</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.0 </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.0 </t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+    </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INF0802</t>
+          <t>INF1293</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Giới thiệu ngành và kỹ năng nghề nghiệp</t>
+          <t>Phân tích dữ liệu lớn</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5 </t>
+          <t xml:space="preserve"> 8.5 </t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3265,47 +3280,138 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 8.7</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Học kỳ 1 - năm học 2022 - 2023 </t>
-        </is>
-      </c>
-    </row>
-    <row r="79"/>
+          <t>INF1323</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Các vấn đề chọn lọc trong Thị giác máy tính</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.5</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.9 </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.1</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.0 </t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>INF1333</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Các vấn đề chọn lọc trong Hệ thống thông tin</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.0 </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.6</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.0 </t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+    </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>INF0123</t>
+          <t>POL0072</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Đồ án ngành</t>
+          <t>Lịch sử Đảng Cộng sản Việt Nam</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3315,44 +3421,44 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5</t>
+          <t xml:space="preserve"> 6.3</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>INF1113</t>
+          <t>SKI0071</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Phát triển ứng dụng học máy</t>
+          <t>KN Võ thuật tự vệ</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3</t>
+          <t xml:space="preserve"> 6.5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3 </t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3362,138 +3468,47 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 7.4</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>INF1182</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Máy học trong thị giác máy tính</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 </t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.0</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.0 </t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.4</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.5 </t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B+ </t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>INF1203</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Hệ thống thông minh</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.7</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.3 </t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.7</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0 </t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B </t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">Học kỳ 2 - năm học 2022 - 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="83"/>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>INF1293</t>
+          <t>INF0137</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Phân tích dữ liệu lớn</t>
+          <t>Đồ án tốt nghiệp</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>10.0</t>
+          <t xml:space="preserve">7 </t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3501,125 +3516,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.3</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>INF1323</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Các vấn đề chọn lọc trong Thị giác máy tính</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.0</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.4 </t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.6</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0 </t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B </t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>INF1333</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Các vấn đề chọn lọc trong Hệ thống thông tin</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.5</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.5 </t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.4</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0 </t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B </t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">Học kỳ 3 - năm học 2022 - 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="86"/>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>POL0072</t>
+          <t>MIL0052</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lịch sử Đảng Cộng sản Việt Nam</t>
+          <t>Giáo dục quốc phòng - an ninh 2 (*)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3627,14 +3551,9 @@
           <t xml:space="preserve">2 </t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.0</t>
-        </is>
-      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3642,62 +3561,86 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.3</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Học kỳ 2 - năm học 2022 - 2023 </t>
-        </is>
-      </c>
-    </row>
-    <row r="89"/>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>INF0137</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Đồ án tốt nghiệp</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7 </t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
+          <t>MIL0063</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Giáo dục quốc phòng - an ninh 3 (*)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MIL0071</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Giáo dục quốc phòng - an ninh 4 (*)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Họ tên:Lê Trung HậuNgày sinh:11/07/00|| Mã sinh viên:190501027|| Lớp:22TH0101</t>
+          <t>Họ tên:Nguyễn Hoàng KhởiNgày sinh:15/02/01|| Mã sinh viên:190201002|| Lớp:22TH0101</t>
         </is>
       </c>
     </row>
@@ -513,12 +513,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1</t>
+          <t xml:space="preserve"> 6.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.6 </t>
+          <t xml:space="preserve"> 6.4 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.8</t>
+          <t xml:space="preserve"> 6.2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve"> 7.0 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -575,17 +575,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.6</t>
+          <t xml:space="preserve"> 7.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 6.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
@@ -649,12 +649,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t>VT</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.5 </t>
+          <t xml:space="preserve">VT </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -664,17 +664,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3</t>
+          <t xml:space="preserve"> 0.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 0.0 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.0</t>
+          <t xml:space="preserve"> 6.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5 </t>
+          <t xml:space="preserve"> 6.5 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -711,17 +711,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 6.4</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.5</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.5 </t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -805,17 +805,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.5</t>
+          <t xml:space="preserve"> 8.4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.5 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B+ </t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.2</t>
+          <t xml:space="preserve"> 6.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.1 </t>
+          <t xml:space="preserve"> 4.9 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -860,17 +860,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.9</t>
+          <t xml:space="preserve"> 5.4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.0 </t>
+          <t xml:space="preserve"> 1.5 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">C </t>
+          <t xml:space="preserve">D+ </t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.5</t>
+          <t xml:space="preserve"> 6.3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -939,12 +939,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 5.0 </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -954,17 +954,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3</t>
+          <t xml:space="preserve"> 5.8</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">B+ </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 6.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 6.0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve"> 5.4 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1048,17 +1048,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 6.8</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -1080,12 +1080,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve"> 9.0 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve"> 7.0 </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.6</t>
+          <t xml:space="preserve"> 7.3</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.8</t>
+          <t xml:space="preserve"> 5.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.2 </t>
+          <t xml:space="preserve"> 5.4 </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1239,17 +1239,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1</t>
+          <t xml:space="preserve"> 5.3</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 1.5 </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">D+ </t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2</t>
+          <t xml:space="preserve"> 4.8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.7 </t>
+          <t xml:space="preserve"> 4.9 </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1286,17 +1286,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.9</t>
+          <t xml:space="preserve"> 4.9</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.0 </t>
+          <t xml:space="preserve"> 1.0 </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">C </t>
+          <t xml:space="preserve">D </t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 7.1 </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.6</t>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1380,17 +1380,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.7</t>
+          <t xml:space="preserve"> 4.4</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 1.0 </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">D </t>
         </is>
       </c>
     </row>
@@ -1412,12 +1412,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 8.5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve"> 6.5 </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1427,17 +1427,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 7.1</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.6</t>
+          <t xml:space="preserve"> 7.7</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.6 </t>
+          <t xml:space="preserve"> 7.7 </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1474,17 +1474,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.6</t>
+          <t xml:space="preserve"> 7.7</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -1506,12 +1506,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.5</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0 </t>
+          <t xml:space="preserve"> 7.5 </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1521,17 +1521,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.2</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -1553,12 +1553,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.9</t>
+          <t xml:space="preserve"> 9.6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3 </t>
+          <t xml:space="preserve"> 7.3 </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.2</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.5 </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1650,12 +1650,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.8</t>
+          <t xml:space="preserve"> 7.4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve"> 5.2 </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1665,17 +1665,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.5</t>
+          <t xml:space="preserve"> 5.9</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.1 </t>
+          <t xml:space="preserve"> 4.2 </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.5</t>
+          <t xml:space="preserve"> 5.9</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
@@ -1744,12 +1744,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.5 </t>
+          <t xml:space="preserve"> 7.0 </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1759,17 +1759,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.7</t>
+          <t xml:space="preserve"> 7.3</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.8 </t>
+          <t xml:space="preserve"> 9.3 </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.1</t>
+          <t xml:space="preserve"> 8.9</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1838,12 +1838,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.8</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1853,17 +1853,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.9</t>
+          <t xml:space="preserve"> 6.5</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -1885,12 +1885,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1900,17 +1900,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 6.9</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.8 </t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.7</t>
+          <t xml:space="preserve"> 8.5</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5 </t>
+          <t xml:space="preserve"> 7.0 </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.7</t>
+          <t xml:space="preserve"> 7.3</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2011,85 +2011,161 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>SKI0011</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>KN Thuyết trình</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.5 </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.1</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5 </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t xml:space="preserve">Học kỳ 3 - năm học 2020 - 2021 </t>
         </is>
       </c>
     </row>
-    <row r="44"/>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MIL0042</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Giáo dục quốc phòng - an ninh 1 (*)</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 </t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.0 </t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.0</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0 </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B </t>
-        </is>
-      </c>
-    </row>
+    <row r="45"/>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Học kỳ 1 - năm học 2021 - 2022 </t>
-        </is>
-      </c>
-    </row>
-    <row r="47"/>
+          <t>MIL0042</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Giáo dục quốc phòng - an ninh 1 (*)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.0 </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.0</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0 </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MIL0052</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Giáo dục quốc phòng - an ninh 2 (*)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.5 </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.5</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.0 </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+    </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHN0032</t>
+          <t>MIL0063</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Hoa văn sơ cấp 3</t>
+          <t>Giáo dục quốc phòng - an ninh 3 (*)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.8</t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.2 </t>
+          <t xml:space="preserve"> 9.0 </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2099,44 +2175,39 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ENG0994</t>
+          <t>MIL0071</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Anh văn cơ bản 5</t>
+          <t>Giáo dục quốc phòng - an ninh 4 (*)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 </t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.5 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2146,138 +2217,52 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.9</t>
+          <t xml:space="preserve"> 6.0</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INF0062</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Các vấn đề về xu hướng phát triển CNTT</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 </t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.5</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.0 </t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.9</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0 </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>INF0873</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Nhập môn kỹ thuật phần mềm</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.0 </t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.3</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.0 </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A </t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">Học kỳ 1 - năm học 2021 - 2022 </t>
+        </is>
+      </c>
+    </row>
+    <row r="51"/>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INF0953</t>
+          <t>CHN0032</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>An ninh cơ sở dữ liệu</t>
+          <t>Hoa văn sơ cấp 3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 5.6</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3 </t>
+          <t xml:space="preserve"> 6.4 </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2287,44 +2272,44 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.2</t>
+          <t xml:space="preserve"> 6.2</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">B+ </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>INF0972</t>
+          <t>ENG0994</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chuyên đề 1 (**)</t>
+          <t>Anh văn cơ bản 5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">4 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve"> 7.5 </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2334,44 +2319,44 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INF1313</t>
+          <t>INF0062</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Quản trị dự án công nghệ thông tin</t>
+          <t>Các vấn đề về xu hướng phát triển CNTT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5 </t>
+          <t xml:space="preserve"> 7.5 </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2381,39 +2366,44 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.7</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PHE0271</t>
+          <t>INF0873</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Giáo dục thể chất 3 (*)</t>
+          <t>Nhập môn kỹ thuật phần mềm</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0 </t>
+          <t xml:space="preserve"> 9.0 </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2423,44 +2413,44 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve"> 9.3</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>POL0052</t>
+          <t>INF0953</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Kinh tế chính trị Mác - Lênin</t>
+          <t>An ninh cơ sở dữ liệu</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5 </t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2470,29 +2460,29 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.1</t>
+          <t xml:space="preserve"> 7.9</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">B+ </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>POL0062</t>
+          <t>INF0972</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chủ nghĩa xã hội khoa học</t>
+          <t>Chuyên đề 1 (**)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2502,12 +2492,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5 </t>
+          <t xml:space="preserve"> 9.5 </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2517,39 +2507,39 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 9.4</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SKI0011</t>
+          <t>INF1313</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KN Thuyết trình</t>
+          <t>Quản trị dự án công nghệ thông tin</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2564,37 +2554,118 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.1</t>
+          <t xml:space="preserve"> 8.7</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">B+ </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Học kỳ 2 - năm học 2021 - 2022 </t>
-        </is>
-      </c>
-    </row>
-    <row r="60"/>
+          <t>PHE0271</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Giáo dục thể chất 3 (*)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.0 </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.0</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0 </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>POL0052</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Kinh tế chính trị Mác - Lênin</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.0 </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.4</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0 </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B </t>
+        </is>
+      </c>
+    </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CHN0042</t>
+          <t>POL0062</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hoa văn sơ cấp 4</t>
+          <t>Chủ nghĩa xã hội khoa học</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2604,12 +2675,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.6</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve"> 7.5 </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2619,44 +2690,44 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.9</t>
+          <t xml:space="preserve"> 7.7</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">C </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>INF0103</t>
+          <t>SKI0071</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nhập môn Trí tuệ nhân tạo</t>
+          <t>KN Võ thuật tự vệ</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 6.7</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.5 </t>
+          <t xml:space="preserve"> 7.0 </t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2666,138 +2737,52 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve"> 6.9</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>INF0983</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Nhập môn khoa học dữ liệu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.5</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.0 </t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.2</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.0 </t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A </t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>INF1083</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Phát triển ứng dụng trí tuệ nhân tạo</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.5</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.5 </t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.2</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.0 </t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A </t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">Học kỳ 2 - năm học 2021 - 2022 </t>
+        </is>
+      </c>
+    </row>
+    <row r="64"/>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>INF1133</t>
+          <t>CHN0042</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lập trình hệ thống</t>
+          <t>Hoa văn sơ cấp 4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 5.4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve"> 6.6 </t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2807,29 +2792,29 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 6.2</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>INF1143</t>
+          <t>INF0103</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Xử lý ảnh số và thị giác máy tính</t>
+          <t xml:space="preserve"> Nhập môn Trí tuệ nhân tạo</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2839,12 +2824,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve"> 6.5 </t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2854,44 +2839,44 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.7</t>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INF1152</t>
+          <t>INF0983</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chuyên đề 2 (**)</t>
+          <t>Nhập môn khoa học dữ liệu</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 7.9</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.0 </t>
+          <t xml:space="preserve"> 7.6 </t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2901,29 +2886,29 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 7.7</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>INF1263</t>
+          <t>INF1083</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Kiểm thử phần mềm</t>
+          <t>Phát triển ứng dụng trí tuệ nhân tạo</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2938,7 +2923,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0 </t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2948,44 +2933,44 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 8.3</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.5 </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B+ </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>POL0032</t>
+          <t>INF1133</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tư tưởng Hồ Chí Minh</t>
+          <t>Lập trình hệ thống</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 8.5</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 8.1 </t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2995,44 +2980,44 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 8.2</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 3.5 </t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">B+ </t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SKI0061</t>
+          <t>INF1143</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KN Tư duy phản biện</t>
+          <t>Xử lý ảnh số và thị giác máy tính</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5</t>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.5 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3042,42 +3027,133 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.1</t>
+          <t xml:space="preserve"> 6.3</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Học kỳ 1 - năm học 2022 - 2023 </t>
-        </is>
-      </c>
-    </row>
-    <row r="72"/>
+          <t>INF1152</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Chuyên đề 2 (**)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.5 </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.7</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.0 </t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>INF1263</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Kiểm thử phần mềm</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.0 </t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0 </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B </t>
+        </is>
+      </c>
+    </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>INF0123</t>
+          <t>POL0032</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Đồ án ngành</t>
+          <t>Tư tưởng Hồ Chí Minh</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3092,7 +3168,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 8.7</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3109,27 +3185,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>INF1113</t>
+          <t>SKI0061</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Phát triển ứng dụng học máy</t>
+          <t>KN Tư duy phản biện</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.2</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3 </t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3139,138 +3215,47 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>INF1182</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Máy học trong thị giác máy tính</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2 </t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.5</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.0 </t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.9</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.0 </t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A </t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>INF1203</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Hệ thống thông minh</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10.0 </t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.0 </t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A </t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">Học kỳ 3 - năm học 2021 - 2022 </t>
+        </is>
+      </c>
+    </row>
+    <row r="76"/>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INF1293</t>
+          <t>INF0802</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Phân tích dữ liệu lớn</t>
+          <t>Giới thiệu ngành và kỹ năng nghề nghiệp</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5 </t>
+          <t xml:space="preserve"> 7.5 </t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3280,138 +3265,47 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.7</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>INF1323</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Các vấn đề chọn lọc trong Thị giác máy tính</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.5</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.9 </t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.1</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.0 </t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A </t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>INF1333</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Các vấn đề chọn lọc trong Hệ thống thông tin</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.0 </t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.6</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.0 </t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A </t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">Học kỳ 1 - năm học 2022 - 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="79"/>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>POL0072</t>
+          <t>INF0123</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Lịch sử Đảng Cộng sản Việt Nam</t>
+          <t>Đồ án ngành</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve"> 8.5 </t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3421,44 +3315,44 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3</t>
+          <t xml:space="preserve"> 8.5</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SKI0071</t>
+          <t>INF1113</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>KN Võ thuật tự vệ</t>
+          <t>Phát triển ứng dụng học máy</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.5</t>
+          <t xml:space="preserve"> 8.3</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 9.3 </t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3468,47 +3362,138 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.4</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Học kỳ 2 - năm học 2022 - 2023 </t>
-        </is>
-      </c>
-    </row>
-    <row r="83"/>
+          <t>INF1182</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Máy học trong thị giác máy tính</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.0 </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.4</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5 </t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>INF1203</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Hệ thống thông minh</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.7</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.3 </t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.7</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0 </t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B </t>
+        </is>
+      </c>
+    </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>INF0137</t>
+          <t>INF1293</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Đồ án tốt nghiệp</t>
+          <t>Phân tích dữ liệu lớn</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 </t>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 9.0 </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3516,34 +3501,125 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.3</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Học kỳ 3 - năm học 2022 - 2023 </t>
-        </is>
-      </c>
-    </row>
-    <row r="86"/>
+          <t>INF1323</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Các vấn đề chọn lọc trong Thị giác máy tính</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.4 </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.6</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0 </t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>INF1333</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Các vấn đề chọn lọc trong Hệ thống thông tin</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.5</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.5 </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.4</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0 </t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B </t>
+        </is>
+      </c>
+    </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MIL0052</t>
+          <t>POL0072</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Giáo dục quốc phòng - an ninh 2 (*)</t>
+          <t>Lịch sử Đảng Cộng sản Việt Nam</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3551,9 +3627,14 @@
           <t xml:space="preserve">2 </t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.0</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3561,86 +3642,62 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.3</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MIL0063</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Giáo dục quốc phòng - an ninh 3 (*)</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>MIL0071</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Giáo dục quốc phòng - an ninh 4 (*)</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 </t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
+          <t xml:space="preserve">Học kỳ 2 - năm học 2022 - 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="89"/>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>INF0137</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Đồ án tốt nghiệp</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Họ tên:Nguyễn Hoàng KhởiNgày sinh:15/02/01|| Mã sinh viên:190201002|| Lớp:22TH0101</t>
+          <t>Họ tên:Nguyễn Hải ĐăngNgày sinh:24/04/01|| Mã sinh viên:190501002|| Lớp:22TH0101</t>
         </is>
       </c>
     </row>
@@ -513,32 +513,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 7.4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.1 </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 6.0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.4 </t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.2</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
@@ -649,12 +649,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VT</t>
+          <t xml:space="preserve"> 6.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">VT </t>
+          <t xml:space="preserve"> 5.5 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -664,17 +664,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.0</t>
+          <t xml:space="preserve"> 5.7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.0 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">F </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0</t>
+          <t xml:space="preserve"> 5.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.4</t>
+          <t xml:space="preserve"> 6.2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -758,17 +758,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.6</t>
+          <t xml:space="preserve"> 6.6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 8.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 9.0 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -805,17 +805,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.4</t>
+          <t xml:space="preserve"> 8.8</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">B+ </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2</t>
+          <t xml:space="preserve"> 5.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.9 </t>
+          <t xml:space="preserve"> 4.8 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.4</t>
+          <t xml:space="preserve"> 5.2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -907,17 +907,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3</t>
+          <t xml:space="preserve"> 4.9</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 1.0 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">D </t>
         </is>
       </c>
     </row>
@@ -1033,12 +1033,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 9.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.4 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1048,17 +1048,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.8</t>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -1127,12 +1127,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3</t>
+          <t xml:space="preserve"> 6.3</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5 </t>
+          <t xml:space="preserve"> 8.5 </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 8.5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.4 </t>
+          <t xml:space="preserve"> 3.6 </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1239,17 +1239,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.3</t>
+          <t xml:space="preserve"> 4.0</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.5 </t>
+          <t xml:space="preserve"> 1.0 </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">D+ </t>
+          <t xml:space="preserve">D </t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.8</t>
+          <t xml:space="preserve"> 5.2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.9 </t>
+          <t xml:space="preserve"> 5.8 </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1286,17 +1286,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.9</t>
+          <t xml:space="preserve"> 5.6</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.0 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve">D </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
@@ -1318,12 +1318,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.8</t>
+          <t xml:space="preserve"> 5.2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1 </t>
+          <t xml:space="preserve"> 5.7 </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1333,17 +1333,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve"> 5.6</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.0 </t>
+          <t xml:space="preserve"> 5.0 </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1380,17 +1380,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.4</t>
+          <t xml:space="preserve"> 6.5</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">D </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.5 </t>
+          <t xml:space="preserve"> 7.0 </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.7</t>
+          <t xml:space="preserve"> 7.6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.7 </t>
+          <t xml:space="preserve"> 7.6 </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.7</t>
+          <t xml:space="preserve"> 7.6</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 9.5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1521,17 +1521,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 8.1</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 3.5 </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">B+ </t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3 </t>
+          <t xml:space="preserve"> 8.8 </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
@@ -1650,12 +1650,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.4</t>
+          <t xml:space="preserve"> 5.8</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.2 </t>
+          <t xml:space="preserve"> 5.4 </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.9</t>
+          <t xml:space="preserve"> 5.5</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.2 </t>
+          <t xml:space="preserve"> 4.3 </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.9</t>
+          <t xml:space="preserve"> 6.0</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3 </t>
+          <t xml:space="preserve"> 8.5 </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1806,17 +1806,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.9</t>
+          <t xml:space="preserve"> 8.4</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.5 </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B+ </t>
         </is>
       </c>
     </row>
@@ -1932,12 +1932,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.5</t>
+          <t xml:space="preserve"> 8.9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 5.8 </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1947,17 +1947,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5</t>
+          <t xml:space="preserve"> 6.7</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0 </t>
+          <t xml:space="preserve"> 7.5 </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3</t>
+          <t xml:space="preserve"> 7.7</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 7.0 </t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5 </t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2133,17 +2133,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0 </t>
+          <t xml:space="preserve"> 7.0 </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve"> 5.0 </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2217,17 +2217,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0</t>
+          <t xml:space="preserve"> 5.0</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.0 </t>
+          <t xml:space="preserve"> 1.0 </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">C </t>
+          <t xml:space="preserve">D </t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.6</t>
+          <t xml:space="preserve"> 6.8</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.4 </t>
+          <t xml:space="preserve"> 6.0 </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5 </t>
+          <t xml:space="preserve"> 6.5 </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 6.7</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -2492,12 +2492,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.5 </t>
+          <t xml:space="preserve">10.0 </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.4</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2554,17 +2554,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.7</t>
+          <t xml:space="preserve"> 8.4</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.5 </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B+ </t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0 </t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2628,12 +2628,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0</t>
+          <t xml:space="preserve"> 5.5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 7.5 </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2643,17 +2643,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.4</t>
+          <t xml:space="preserve"> 6.9</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 2.5 </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">C+ </t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5 </t>
+          <t xml:space="preserve"> 7.0 </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.7</t>
+          <t xml:space="preserve"> 7.2</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.7</t>
+          <t xml:space="preserve"> 7.7</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2737,17 +2737,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.9</t>
+          <t xml:space="preserve"> 7.3</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.6 </t>
+          <t xml:space="preserve"> 6.2 </t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2</t>
+          <t xml:space="preserve"> 6.0</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> 2.0 </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">C+ </t>
+          <t xml:space="preserve">C </t>
         </is>
       </c>
     </row>
@@ -2871,12 +2871,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.9</t>
+          <t xml:space="preserve"> 8.5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.6 </t>
+          <t xml:space="preserve"> 7.0 </t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.7</t>
+          <t xml:space="preserve"> 7.5</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.0 </t>
+          <t xml:space="preserve"> 7.5 </t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2933,17 +2933,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">B+ </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3</t>
+          <t xml:space="preserve"> 6.6</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.5 </t>
+          <t xml:space="preserve"> 9.0 </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.7</t>
+          <t xml:space="preserve"> 9.3</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve"> 7.3</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0 </t>
+          <t xml:space="preserve"> 8.0 </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3168,17 +3168,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.7</t>
+          <t xml:space="preserve"> 8.0</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Học kỳ 3 - năm học 2021 - 2022 </t>
+          <t xml:space="preserve">Học kỳ 1 - năm học 2022 - 2023 </t>
         </is>
       </c>
     </row>
@@ -3240,22 +3240,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INF0802</t>
+          <t>INF0123</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Giới thiệu ngành và kỹ năng nghề nghiệp</t>
+          <t>Đồ án ngành</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5 </t>
+          <t xml:space="preserve"> 9.0 </t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3265,37 +3265,123 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.5</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0 </t>
+          <t xml:space="preserve"> 4.0 </t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve">B </t>
+          <t xml:space="preserve">A </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Học kỳ 1 - năm học 2022 - 2023 </t>
-        </is>
-      </c>
-    </row>
-    <row r="79"/>
+          <t>INF1113</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Phát triển ứng dụng học máy</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.3</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.3 </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.0</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.0 </t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>INF1182</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Máy học trong thị giác máy tính</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.0 </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.7</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0 </t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B </t>
+        </is>
+      </c>
+    </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>INF0123</t>
+          <t>INF1203</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Đồ án ngành</t>
+          <t>Hệ thống thông minh</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3303,9 +3389,14 @@
           <t xml:space="preserve">3 </t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.3</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5 </t>
+          <t xml:space="preserve"> 9.5 </t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3315,7 +3406,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.5</t>
+          <t xml:space="preserve"> 9.4</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3332,12 +3423,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>INF1113</t>
+          <t>INF1293</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Phát triển ứng dụng học máy</t>
+          <t>Phân tích dữ liệu lớn</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3347,12 +3438,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3 </t>
+          <t xml:space="preserve"> 9.0 </t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3362,7 +3453,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0</t>
+          <t xml:space="preserve"> 9.3</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3379,17 +3470,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>INF1182</t>
+          <t>INF1323</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Máy học trong thị giác máy tính</t>
+          <t>Các vấn đề chọn lọc trong Thị giác máy tính</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">3 </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3399,7 +3490,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0 </t>
+          <t xml:space="preserve"> 7.6 </t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3409,29 +3500,29 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.4</t>
+          <t xml:space="preserve"> 7.4</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve">B+ </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>INF1203</t>
+          <t>INF1333</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hệ thống thông minh</t>
+          <t>Các vấn đề chọn lọc trong Hệ thống thông tin</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3441,12 +3532,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.7</t>
+          <t xml:space="preserve"> 9.0</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3 </t>
+          <t xml:space="preserve"> 7.0 </t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3456,7 +3547,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.7</t>
+          <t xml:space="preserve"> 7.6</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3473,27 +3564,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>INF1293</t>
+          <t>POL0072</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Phân tích dữ liệu lớn</t>
+          <t>Lịch sử Đảng Cộng sản Việt Nam</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t xml:space="preserve"> 7.0</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.0 </t>
+          <t xml:space="preserve"> 7.5 </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3503,138 +3594,47 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3</t>
+          <t xml:space="preserve"> 7.4</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.0 </t>
+          <t xml:space="preserve"> 3.0 </t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">A </t>
+          <t xml:space="preserve">B </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>INF1323</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Các vấn đề chọn lọc trong Thị giác máy tính</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.0</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.4 </t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.6</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0 </t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B </t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>INF1333</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Các vấn đề chọn lọc trong Hệ thống thông tin</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 </t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.5</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.5 </t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.4</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0 </t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B </t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">Học kỳ 2 - năm học 2022 - 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="86"/>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>POL0072</t>
+          <t>INF0137</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lịch sử Đảng Cộng sản Việt Nam</t>
+          <t>Đồ án tốt nghiệp</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.0</t>
+          <t xml:space="preserve">7 </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.0 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3642,62 +3642,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.3</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.5 </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C+ </t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Học kỳ 2 - năm học 2022 - 2023 </t>
-        </is>
-      </c>
-    </row>
-    <row r="89"/>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>INF0137</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Đồ án tốt nghiệp</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7 </t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
